--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>1400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,13 +1150,15 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1113,40 +1167,46 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,40 +1220,46 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-1700</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1232,25 +1300,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1258,55 +1326,67 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-100</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>-1700</v>
       </c>
       <c r="H21" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1331,11 +1411,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1349,58 +1429,70 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-1700</v>
       </c>
       <c r="H23" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-1700</v>
       </c>
       <c r="H26" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-1700</v>
       </c>
       <c r="H27" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1796,81 +1936,93 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-1700</v>
       </c>
       <c r="H33" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-1700</v>
       </c>
       <c r="H35" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,32 +2225,34 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,32 +2486,38 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2335,19 +2539,25 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2418,10 +2634,10 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="O48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>1800</v>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2596,11 +2836,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,31 +2910,37 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>500</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
@@ -2700,10 +2952,10 @@
         <v>400</v>
       </c>
       <c r="N54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="O54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>1800</v>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,69 +3009,77 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>1400</v>
       </c>
       <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -2843,22 +3111,28 @@
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
@@ -2867,31 +3141,37 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2899,46 +3179,52 @@
         <v>1000</v>
       </c>
       <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3482,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3181,46 +3497,52 @@
         <v>1000</v>
       </c>
       <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-36700</v>
+        <v>-38400</v>
       </c>
       <c r="E72" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-36600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-36000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-35900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-35800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-35400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-34900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-34700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-34600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-32900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-32800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-32600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3623,46 +3995,52 @@
         <v>700</v>
       </c>
       <c r="E76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>700</v>
+      </c>
+      <c r="G76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-1700</v>
       </c>
       <c r="H81" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,19 +4222,21 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,46 +5070,52 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,32 +5161,38 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,26 +935,27 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
@@ -949,11 +963,11 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
@@ -961,22 +975,25 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,28 +1057,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1066,12 +1086,12 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>1400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,37 +1178,38 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1191,10 +1218,10 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>1600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1203,10 +1230,13 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,26 +1247,26 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
@@ -1244,11 +1274,11 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
@@ -1256,10 +1286,13 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1306,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1318,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,23 +1383,23 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
@@ -1371,22 +1408,25 @@
         <v>-100</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1417,8 +1457,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1435,40 +1475,43 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-300</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1477,22 +1520,25 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,37 +1646,40 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-300</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1636,51 +1688,54 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-300</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1689,22 +1744,25 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1942,11 +2012,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1954,11 +2024,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -1968,37 +2038,40 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-300</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2007,22 +2080,25 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,37 +2150,40 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-300</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2113,80 +2192,86 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,34 +2313,35 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,13 +2535,16 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2492,34 +2591,37 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2545,13 +2647,16 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>4</v>
@@ -2559,8 +2664,8 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2640,7 +2748,7 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>1800</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2842,8 +2962,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,34 +3039,37 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
@@ -2958,7 +3084,7 @@
         <v>400</v>
       </c>
       <c r="P54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>1800</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,28 +3141,29 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1400</v>
       </c>
       <c r="J57" s="3">
         <v>1400</v>
@@ -3041,31 +3172,34 @@
         <v>1400</v>
       </c>
       <c r="L57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1100</v>
       </c>
       <c r="N57" s="3">
         <v>1100</v>
       </c>
       <c r="O57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
@@ -3117,25 +3251,28 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
@@ -3147,7 +3284,7 @@
         <v>400</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -3156,75 +3293,81 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2100</v>
       </c>
       <c r="J60" s="3">
         <v>2100</v>
       </c>
       <c r="K60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2100</v>
       </c>
       <c r="J66" s="3">
         <v>2100</v>
       </c>
       <c r="K66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-37800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-34900</v>
       </c>
       <c r="M72" s="3">
         <v>-34900</v>
       </c>
       <c r="N72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="O72" s="3">
         <v>-34700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-34600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1600</v>
       </c>
       <c r="K76" s="3">
         <v>-1600</v>
       </c>
       <c r="L76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,95 +4281,101 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-300</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -4189,22 +4384,25 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,19 +4422,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,26 +4756,29 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -4569,10 +4786,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4581,10 +4798,10 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4593,10 +4810,13 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,37 +5304,40 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5100,11 +5346,11 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5112,10 +5358,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,35 +5416,38 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,29 +948,30 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
@@ -966,11 +979,11 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
@@ -978,22 +991,25 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,40 +1064,43 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1089,12 +1108,12 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,40 +1204,41 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1221,10 +1247,10 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1233,10 +1259,13 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,32 +1273,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
@@ -1277,11 +1306,11 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
@@ -1289,10 +1318,13 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1343,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1355,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,23 +1422,23 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-400</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
@@ -1411,22 +1447,25 @@
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1460,8 +1499,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1478,43 +1517,46 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-400</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1523,22 +1565,25 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,40 +1697,43 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-400</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1691,54 +1742,57 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1747,22 +1801,25 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2015,11 +2084,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2027,11 +2096,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2041,40 +2110,43 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2083,22 +2155,25 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,40 +2228,43 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2195,83 +2273,89 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,37 +2399,38 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,17 +2633,20 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2594,37 +2692,40 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>2800</v>
       </c>
       <c r="E46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2650,16 +2751,19 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -2667,8 +2771,8 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2751,7 +2858,7 @@
         <v>400</v>
       </c>
       <c r="Q48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="R48" s="3">
         <v>1800</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2965,8 +3084,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,37 +3164,40 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
       </c>
       <c r="K54" s="3">
+        <v>400</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
@@ -3087,7 +3212,7 @@
         <v>400</v>
       </c>
       <c r="Q54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>1800</v>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,31 +3271,32 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1400</v>
       </c>
       <c r="K57" s="3">
         <v>1400</v>
@@ -3175,51 +3305,54 @@
         <v>1400</v>
       </c>
       <c r="M57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N57" s="3">
         <v>1200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1100</v>
       </c>
       <c r="O57" s="3">
         <v>1100</v>
       </c>
       <c r="P57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,19 +3399,19 @@
         <v>600</v>
       </c>
       <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -3287,7 +3423,7 @@
         <v>400</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -3296,78 +3432,84 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2100</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
       </c>
       <c r="L60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2100</v>
       </c>
       <c r="K66" s="3">
         <v>2100</v>
       </c>
       <c r="L66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-37800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-34900</v>
       </c>
       <c r="N72" s="3">
         <v>-34900</v>
       </c>
       <c r="O72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="P72" s="3">
         <v>-34700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4354,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,55 +4366,58 @@
         <v>2200</v>
       </c>
       <c r="E76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1600</v>
       </c>
       <c r="L76" s="3">
         <v>-1600</v>
       </c>
       <c r="M76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,101 +4472,107 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -4387,22 +4581,25 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,29 +4972,32 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -4789,10 +5005,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4801,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4813,10 +5029,13 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,40 +5549,43 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5349,11 +5594,11 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5361,10 +5606,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,38 +5667,41 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,23 +972,23 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
@@ -982,11 +996,11 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
@@ -994,22 +1008,25 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,43 +1084,46 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1111,12 +1131,12 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>1400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,43 +1231,44 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1250,10 +1277,10 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>1600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
@@ -1262,10 +1289,13 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,35 +1303,35 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
@@ -1309,11 +1339,11 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
@@ -1321,10 +1351,13 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1379,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1391,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,23 +1462,23 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-400</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
@@ -1450,22 +1487,25 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1502,8 +1542,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1520,46 +1560,49 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-400</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1568,22 +1611,25 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,43 +1749,46 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-400</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1745,57 +1797,60 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1804,22 +1859,25 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2087,11 +2157,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2099,11 +2169,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2113,43 +2183,46 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-400</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2158,22 +2231,25 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,43 +2307,46 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-400</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2276,86 +2355,92 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,40 +2486,41 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,11 +2744,11 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2695,40 +2794,43 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2765,8 +2870,8 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2774,8 +2879,8 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2861,7 +2969,7 @@
         <v>400</v>
       </c>
       <c r="R48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="S48" s="3">
         <v>1800</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3087,8 +3207,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,40 +3290,43 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
         <v>500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
@@ -3215,7 +3341,7 @@
         <v>400</v>
       </c>
       <c r="R54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>1800</v>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,34 +3402,35 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1400</v>
       </c>
       <c r="L57" s="3">
         <v>1400</v>
@@ -3308,54 +3439,57 @@
         <v>1400</v>
       </c>
       <c r="N57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O57" s="3">
         <v>1200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1100</v>
       </c>
       <c r="P57" s="3">
         <v>1100</v>
       </c>
       <c r="Q57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3402,19 +3539,19 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -3426,7 +3563,7 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -3435,81 +3572,87 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2100</v>
       </c>
       <c r="L60" s="3">
         <v>2100</v>
       </c>
       <c r="M60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2100</v>
       </c>
       <c r="L66" s="3">
         <v>2100</v>
       </c>
       <c r="M66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-34900</v>
       </c>
       <c r="O72" s="3">
         <v>-34900</v>
       </c>
       <c r="P72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-34600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E76" s="3">
         <v>2200</v>
       </c>
       <c r="F76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1600</v>
       </c>
       <c r="M76" s="3">
         <v>-1600</v>
       </c>
       <c r="N76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,107 +4664,113 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-400</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4584,22 +4779,25 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,32 +5189,35 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -5008,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5020,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5032,10 +5249,13 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,34 +5807,34 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5597,11 +5843,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5609,10 +5855,13 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,41 +5919,44 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,23 +989,23 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
@@ -999,11 +1013,11 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
@@ -1011,22 +1025,25 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,46 +1104,49 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1134,12 +1154,12 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>1400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,46 +1258,47 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1280,10 +1307,10 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>1600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
@@ -1292,10 +1319,13 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,38 +1333,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
@@ -1342,11 +1372,11 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
@@ -1354,10 +1384,13 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,11 +1423,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1416,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1428,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,23 +1502,23 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-400</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
@@ -1490,22 +1527,25 @@
         <v>-100</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
-        <v>-100</v>
-      </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1545,8 +1585,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1563,49 +1603,52 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1614,22 +1657,25 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,46 +1801,49 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1800,60 +1852,63 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1862,22 +1917,25 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,10 +2203,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2160,11 +2230,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2172,11 +2242,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2186,46 +2256,49 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2234,22 +2307,25 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,46 +2386,49 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2358,89 +2437,95 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,43 +2573,44 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,11 +2846,11 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2797,43 +2896,46 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2873,8 +2978,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2882,8 +2987,8 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2921,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -2972,7 +3080,7 @@
         <v>400</v>
       </c>
       <c r="S48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="T48" s="3">
         <v>1800</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3210,8 +3330,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,43 +3416,46 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
@@ -3344,7 +3470,7 @@
         <v>400</v>
       </c>
       <c r="S54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="T54" s="3">
         <v>1800</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,37 +3533,38 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
       </c>
       <c r="M57" s="3">
         <v>1400</v>
@@ -3442,31 +3573,34 @@
         <v>1400</v>
       </c>
       <c r="O57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P57" s="3">
         <v>1200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1100</v>
       </c>
       <c r="Q57" s="3">
         <v>1100</v>
       </c>
       <c r="R57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3476,23 +3610,23 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -3527,13 +3661,16 @@
       <c r="V58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -3542,19 +3679,19 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
@@ -3566,7 +3703,7 @@
         <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -3575,84 +3712,90 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2100</v>
       </c>
       <c r="M60" s="3">
         <v>2100</v>
       </c>
       <c r="N60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2100</v>
       </c>
       <c r="M66" s="3">
         <v>2100</v>
       </c>
       <c r="N66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-39200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-37800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-34900</v>
       </c>
       <c r="P72" s="3">
         <v>-34900</v>
       </c>
       <c r="Q72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-34700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-34600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2200</v>
       </c>
       <c r="F76" s="3">
         <v>2200</v>
       </c>
       <c r="G76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1600</v>
       </c>
       <c r="N76" s="3">
         <v>-1600</v>
       </c>
       <c r="O76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,113 +4856,119 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4782,22 +4977,25 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,35 +5406,38 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -5228,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5240,10 +5457,10 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5252,10 +5469,13 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,31 +5498,32 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,28 +5691,31 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,46 +6041,49 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5846,11 +6092,11 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -5858,10 +6104,13 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,44 +6171,47 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,23 +1006,23 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
@@ -1016,11 +1030,11 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
@@ -1028,22 +1042,25 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,38 +1138,38 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1157,12 +1177,12 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>1400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,49 +1285,50 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1310,10 +1337,10 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>1600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
@@ -1322,10 +1349,13 @@
         <v>100</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,41 +1363,41 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
@@ -1375,11 +1405,11 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
@@ -1387,10 +1417,13 @@
         <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,14 +1457,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1453,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1465,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,23 +1542,23 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Q21" s="3">
         <v>-100</v>
@@ -1530,22 +1567,25 @@
         <v>-100</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1588,8 +1628,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1606,52 +1646,55 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1660,22 +1703,25 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,49 +1853,52 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1855,63 +1907,66 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1920,22 +1975,25 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,13 +2273,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2233,11 +2303,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2245,11 +2315,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2259,49 +2329,52 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2310,22 +2383,25 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,49 +2465,52 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2440,92 +2519,98 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,46 +2660,47 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2849,11 +2948,11 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2899,46 +2998,49 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
         <v>5000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2981,8 +3086,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -2990,8 +3095,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,7 +3146,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -3083,7 +3191,7 @@
         <v>400</v>
       </c>
       <c r="T48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>1800</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,31 +3406,34 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3333,8 +3453,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,46 +3542,49 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
       </c>
       <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
@@ -3473,7 +3599,7 @@
         <v>400</v>
       </c>
       <c r="T54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="U54" s="3">
         <v>1800</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,40 +3664,41 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1400</v>
       </c>
       <c r="N57" s="3">
         <v>1400</v>
@@ -3576,31 +3707,34 @@
         <v>1400</v>
       </c>
       <c r="P57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1100</v>
       </c>
       <c r="R57" s="3">
         <v>1100</v>
       </c>
       <c r="S57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3613,23 +3747,23 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -3682,19 +3819,19 @@
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
@@ -3706,7 +3843,7 @@
         <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -3715,22 +3852,25 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,64 +3878,67 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2100</v>
       </c>
       <c r="N60" s="3">
         <v>2100</v>
       </c>
       <c r="O60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,64 +4286,67 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2100</v>
       </c>
       <c r="N66" s="3">
         <v>2100</v>
       </c>
       <c r="O66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,64 +4652,67 @@
         <v>-36800</v>
       </c>
       <c r="E72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-39700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-37800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-34900</v>
       </c>
       <c r="Q72" s="3">
         <v>-34900</v>
       </c>
       <c r="R72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="S72" s="3">
         <v>-34700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-34600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E76" s="3">
         <v>5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2200</v>
       </c>
       <c r="G76" s="3">
         <v>2200</v>
       </c>
       <c r="H76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1600</v>
       </c>
       <c r="O76" s="3">
         <v>-1600</v>
       </c>
       <c r="P76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,119 +5048,125 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4980,22 +5175,25 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,31 +5217,32 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,38 +5623,41 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -5448,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5460,10 +5677,10 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5472,10 +5689,13 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,16 +5719,17 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -5525,8 +5746,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,17 +5921,20 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>2800</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5717,8 +5947,8 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,49 +6287,52 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6095,11 +6341,11 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6107,10 +6353,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,47 +6423,50 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
-        <v>-100</v>
-      </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,23 +1022,23 @@
         <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
@@ -1033,11 +1046,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
@@ -1045,22 +1058,25 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
       <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1141,38 +1160,38 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1180,12 +1199,12 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>1400</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,52 +1311,53 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1340,10 +1366,10 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>1600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
@@ -1352,10 +1378,13 @@
         <v>100</v>
       </c>
       <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,44 +1392,44 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
@@ -1408,11 +1437,11 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
@@ -1420,10 +1449,13 @@
         <v>-100</v>
       </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,17 +1490,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1490,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1502,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1516,16 +1549,19 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1545,23 +1581,23 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
@@ -1570,22 +1606,25 @@
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
       <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1631,8 +1670,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1649,55 +1688,58 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1706,22 +1748,25 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,52 +1904,55 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1910,66 +1961,69 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1978,22 +2032,25 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,16 +2342,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2306,11 +2375,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2318,11 +2387,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2332,52 +2401,55 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2386,22 +2458,25 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,52 +2543,55 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2522,95 +2600,101 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,49 +2746,50 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,13 +3028,16 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2951,11 +3049,11 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -3001,49 +3099,52 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3089,8 +3193,8 @@
       <c r="H47" s="3">
         <v>0</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3098,8 +3202,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3149,7 +3256,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -3194,7 +3301,7 @@
         <v>400</v>
       </c>
       <c r="U48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="V48" s="3">
         <v>1800</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3435,8 +3554,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -3456,8 +3575,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,49 +3667,52 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
@@ -3602,7 +3727,7 @@
         <v>400</v>
       </c>
       <c r="U54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="V54" s="3">
         <v>1800</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,43 +3794,44 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1400</v>
       </c>
       <c r="O57" s="3">
         <v>1400</v>
@@ -3710,31 +3840,34 @@
         <v>1400</v>
       </c>
       <c r="Q57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R57" s="3">
         <v>1200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1100</v>
       </c>
       <c r="S57" s="3">
         <v>1100</v>
       </c>
       <c r="T57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3750,23 +3883,23 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
@@ -3822,19 +3958,19 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
@@ -3846,7 +3982,7 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
@@ -3855,90 +3991,96 @@
         <v>300</v>
       </c>
       <c r="T59" s="3">
+        <v>300</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
-      </c>
-      <c r="U59" s="3">
-        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
       </c>
       <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2100</v>
       </c>
       <c r="O60" s="3">
         <v>2100</v>
       </c>
       <c r="P60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
       </c>
       <c r="F66" s="3">
+        <v>200</v>
+      </c>
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2100</v>
       </c>
       <c r="O66" s="3">
         <v>2100</v>
       </c>
       <c r="P66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-36800</v>
+        <v>-37200</v>
       </c>
       <c r="E72" s="3">
         <v>-36800</v>
       </c>
       <c r="F72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-39700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-39200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-34900</v>
       </c>
       <c r="R72" s="3">
         <v>-34900</v>
       </c>
       <c r="S72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="T72" s="3">
         <v>-34700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-34600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-32600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2200</v>
       </c>
       <c r="H76" s="3">
         <v>2200</v>
       </c>
       <c r="I76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1600</v>
       </c>
       <c r="P76" s="3">
         <v>-1600</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,125 +5239,131 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -5178,22 +5372,25 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,16 +5415,17 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -5244,8 +5442,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,41 +5839,44 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -5668,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5680,10 +5896,10 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -5692,10 +5908,13 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,19 +5939,20 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5749,8 +5969,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,20 +6150,23 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>2800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5950,8 +6179,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,43 +6544,43 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6344,11 +6589,11 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6356,10 +6601,13 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,50 +6674,53 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,13 +1017,14 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1025,23 +1039,23 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
@@ -1049,11 +1063,11 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
@@ -1061,22 +1075,25 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
       <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,16 +1163,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1163,38 +1183,38 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1202,12 +1222,12 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>1400</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,55 +1338,56 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
@@ -1369,10 +1396,10 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>1600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
@@ -1381,10 +1408,13 @@
         <v>100</v>
       </c>
       <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,47 +1422,47 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
@@ -1440,11 +1470,11 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
@@ -1452,10 +1482,13 @@
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,20 +1524,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1526,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1538,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,10 +1598,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1584,23 +1621,23 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>-400</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
@@ -1609,22 +1646,25 @@
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
-        <v>-100</v>
-      </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1673,8 +1713,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1691,58 +1731,61 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-400</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1751,22 +1794,25 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,55 +1956,58 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-400</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1964,69 +2016,72 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -2035,22 +2090,25 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,19 +2412,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2378,11 +2448,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2390,11 +2460,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2404,55 +2474,58 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2461,22 +2534,25 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,55 +2622,58 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2603,98 +2682,104 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,52 +2833,53 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3052,11 +3151,11 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -3102,52 +3201,55 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3196,8 +3301,8 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -3205,8 +3310,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3244,13 +3349,16 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3259,7 +3367,7 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -3304,7 +3412,7 @@
         <v>400</v>
       </c>
       <c r="V48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="W48" s="3">
         <v>1800</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3557,8 +3677,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -3578,8 +3698,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,52 +3793,55 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="3">
         <v>5100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
@@ -3730,7 +3856,7 @@
         <v>400</v>
       </c>
       <c r="V54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="W54" s="3">
         <v>1800</v>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,37 +3935,37 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1400</v>
       </c>
       <c r="P57" s="3">
         <v>1400</v>
@@ -3843,31 +3974,34 @@
         <v>1400</v>
       </c>
       <c r="R57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S57" s="3">
         <v>1200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1100</v>
       </c>
       <c r="T57" s="3">
         <v>1100</v>
       </c>
       <c r="U57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3886,23 +4020,23 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3952,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
@@ -3961,19 +4098,19 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
@@ -3985,7 +4122,7 @@
         <v>400</v>
       </c>
       <c r="R59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
@@ -3994,22 +4131,25 @@
         <v>300</v>
       </c>
       <c r="U59" s="3">
+        <v>300</v>
+      </c>
+      <c r="V59" s="3">
         <v>200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4017,70 +4157,73 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2100</v>
       </c>
       <c r="P60" s="3">
         <v>2100</v>
       </c>
       <c r="Q60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4589,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,70 +4601,73 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
       </c>
       <c r="G66" s="3">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2100</v>
       </c>
       <c r="P66" s="3">
         <v>2100</v>
       </c>
       <c r="Q66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-36800</v>
       </c>
       <c r="F72" s="3">
         <v>-36800</v>
       </c>
       <c r="G72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-39700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-39200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-37800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-34900</v>
       </c>
       <c r="S72" s="3">
         <v>-34900</v>
       </c>
       <c r="T72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="U72" s="3">
         <v>-34700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-34600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-32800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-32600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2200</v>
       </c>
       <c r="I76" s="3">
         <v>2200</v>
       </c>
       <c r="J76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q76" s="3">
         <v>-1600</v>
       </c>
       <c r="R76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,131 +5431,137 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -5375,22 +5570,25 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5427,8 +5626,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -5445,8 +5644,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,44 +6056,47 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5887,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5899,10 +6116,10 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -5911,10 +6128,13 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,22 +6160,23 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5972,8 +6193,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,23 +6380,26 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>2800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6182,8 +6412,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,55 +6778,58 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6592,11 +6838,11 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -6604,10 +6850,13 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,53 +6926,56 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1041,7 @@
         <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1042,23 +1056,23 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
@@ -1066,11 +1080,11 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
@@ -1078,22 +1092,25 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
       <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,8 +1197,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1186,38 +1206,38 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1225,12 +1245,12 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>1400</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,58 +1365,59 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
@@ -1399,10 +1426,10 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>1600</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
@@ -1411,10 +1438,13 @@
         <v>100</v>
       </c>
       <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,50 +1452,50 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
@@ -1473,11 +1503,11 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
@@ -1485,10 +1515,13 @@
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,23 +1558,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1563,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1575,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,13 +1635,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>-100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1624,23 +1661,23 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>-400</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
@@ -1649,22 +1686,25 @@
         <v>-100</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1716,8 +1756,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1734,61 +1774,64 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-400</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1797,22 +1840,25 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,58 +2008,61 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-400</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -2019,72 +2071,75 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -2093,22 +2148,25 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,22 +2482,22 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2451,11 +2521,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2463,11 +2533,11 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2477,58 +2547,61 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2537,22 +2610,25 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,58 +2701,61 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2685,101 +2764,107 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,55 +2920,56 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3142,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3154,11 +3253,11 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -3204,55 +3303,58 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3304,8 +3409,8 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -3313,8 +3418,8 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,7 +3469,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -3370,7 +3478,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -3415,7 +3523,7 @@
         <v>400</v>
       </c>
       <c r="W48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="X48" s="3">
         <v>1800</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3680,8 +3800,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -3701,8 +3821,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,55 +3919,58 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>500</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
@@ -3859,7 +3985,7 @@
         <v>400</v>
       </c>
       <c r="W54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="X54" s="3">
         <v>1800</v>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,49 +4056,50 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1400</v>
       </c>
       <c r="Q57" s="3">
         <v>1400</v>
@@ -3977,51 +4108,54 @@
         <v>1400</v>
       </c>
       <c r="S57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T57" s="3">
         <v>1200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1100</v>
       </c>
       <c r="U57" s="3">
         <v>1100</v>
       </c>
       <c r="V57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4030,16 +4164,16 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4092,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -4101,19 +4238,19 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>400</v>
@@ -4125,7 +4262,7 @@
         <v>400</v>
       </c>
       <c r="S59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
@@ -4134,96 +4271,102 @@
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>300</v>
+      </c>
+      <c r="W59" s="3">
         <v>200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2100</v>
       </c>
       <c r="Q60" s="3">
         <v>2100</v>
       </c>
       <c r="R60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2100</v>
       </c>
       <c r="Q66" s="3">
         <v>2100</v>
       </c>
       <c r="R66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-37200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-36800</v>
       </c>
       <c r="G72" s="3">
         <v>-36800</v>
       </c>
       <c r="H72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-39700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-39200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-37800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-35400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-34900</v>
       </c>
       <c r="T72" s="3">
         <v>-34900</v>
       </c>
       <c r="U72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="V72" s="3">
         <v>-34700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-34600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-32900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-32800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-32600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2200</v>
       </c>
       <c r="J76" s="3">
         <v>2200</v>
       </c>
       <c r="K76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1600</v>
       </c>
       <c r="R76" s="3">
         <v>-1600</v>
       </c>
       <c r="S76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,137 +5623,143 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -5573,22 +5768,25 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5629,8 +5828,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -5647,8 +5846,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,47 +6273,50 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -6107,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -6119,10 +6336,10 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6131,10 +6348,13 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,25 +6381,26 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -6196,8 +6417,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,26 +6610,29 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>2800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6415,8 +6645,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,58 +7024,61 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6841,11 +7087,11 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -6853,10 +7099,13 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,56 +7178,59 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +856,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,22 +1057,24 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1059,58 +1086,64 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,71 +1239,77 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1400</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,28 +1417,30 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1396,55 +1449,61 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1700</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
       <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,19 +1511,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
@@ -1473,55 +1532,61 @@
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-1600</v>
       </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z18" s="3">
         <v>-100</v>
       </c>
       <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,29 +1625,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1600,25 +1667,25 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
@@ -1626,8 +1693,14 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,19 +1708,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>-100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1664,47 +1737,53 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1759,11 +1838,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1777,88 +1856,100 @@
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-400</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,28 +2621,28 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2524,111 +2663,123 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,62 +3092,64 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>5100</v>
       </c>
       <c r="H41" s="3">
         <v>4900</v>
       </c>
       <c r="I41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2998,31 +3171,37 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3075,8 +3254,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3337,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,25 +3420,31 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3256,14 +3453,14 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -3306,62 +3503,68 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F46" s="3">
         <v>3600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3383,8 +3586,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3412,20 +3621,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3460,8 +3669,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3472,19 +3687,19 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -3526,10 +3741,10 @@
         <v>400</v>
       </c>
       <c r="X48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="Y48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="Z48" s="3">
         <v>1800</v>
@@ -3537,8 +3752,14 @@
       <c r="AA48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3803,11 +4042,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -3824,11 +4063,11 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,61 +4167,67 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="3">
         <v>4000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>500</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
       </c>
       <c r="T54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
@@ -3988,10 +4239,10 @@
         <v>400</v>
       </c>
       <c r="X54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="Y54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="Z54" s="3">
         <v>1800</v>
@@ -3999,8 +4250,14 @@
       <c r="AA54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,22 +4316,24 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -4081,61 +4342,67 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1400</v>
       </c>
       <c r="S57" s="3">
         <v>1400</v>
       </c>
       <c r="T57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4167,19 +4434,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -4211,13 +4478,19 @@
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -4232,31 +4505,31 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
-      </c>
       <c r="Q59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
@@ -4265,108 +4538,120 @@
         <v>400</v>
       </c>
       <c r="T59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
       <c r="W59" s="3">
+        <v>300</v>
+      </c>
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>100</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1100</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
       </c>
       <c r="M60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N60" s="3">
         <v>1000</v>
       </c>
       <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4727,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1100</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N66" s="3">
         <v>1000</v>
       </c>
       <c r="O66" s="3">
+        <v>900</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-38900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-38100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-37200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-36800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-36800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-39700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-39200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-38900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-38400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-38100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-37800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-36600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-35900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-35800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-35400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-34900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-34900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-34700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-34600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-32900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-32800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-32600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1000</v>
       </c>
       <c r="N76" s="3">
         <v>700</v>
       </c>
       <c r="O76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P76" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5831,11 +6228,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -5849,11 +6246,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6703,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6285,76 +6718,82 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,31 +6821,33 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -6420,11 +6861,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,32 +7066,38 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>2800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6648,11 +7107,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7512,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7678,14 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,53 +7693,53 @@
         <v>-500</v>
       </c>
       <c r="E102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7759,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +866,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,25 +1072,26 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1092,23 +1106,23 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
@@ -1116,11 +1130,11 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
@@ -1128,22 +1142,25 @@
         <v>0</v>
       </c>
       <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
       <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,8 +1265,8 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1254,38 +1274,38 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>1400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1293,12 +1313,12 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1400</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,67 +1445,68 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
@@ -1488,10 +1515,10 @@
         <v>100</v>
       </c>
       <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>100</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
@@ -1500,10 +1527,13 @@
         <v>100</v>
       </c>
       <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,59 +1541,59 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
       </c>
       <c r="G18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
@@ -1571,11 +1601,11 @@
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
@@ -1583,10 +1613,13 @@
         <v>-100</v>
       </c>
       <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1631,26 +1665,26 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1673,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1685,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -1699,8 +1733,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,22 +1745,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="F21" s="3">
         <v>-800</v>
       </c>
       <c r="G21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>-100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1743,23 +1780,23 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>-400</v>
       </c>
       <c r="V21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
@@ -1768,22 +1805,25 @@
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB21" s="3">
         <v>-100</v>
       </c>
       <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1844,8 +1884,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
@@ -1862,70 +1902,73 @@
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-800</v>
       </c>
       <c r="F23" s="3">
         <v>-800</v>
       </c>
       <c r="G23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-400</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
@@ -1934,22 +1977,25 @@
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
       <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,67 +2163,70 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-800</v>
       </c>
       <c r="F26" s="3">
         <v>-800</v>
       </c>
       <c r="G26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-400</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
@@ -2183,81 +2235,84 @@
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
       <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-800</v>
       </c>
       <c r="F27" s="3">
         <v>-800</v>
       </c>
       <c r="G27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-400</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
@@ -2266,22 +2321,25 @@
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
       <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2627,25 +2697,25 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2669,11 +2739,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2681,11 +2751,11 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2695,67 +2765,70 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-800</v>
       </c>
       <c r="F33" s="3">
         <v>-800</v>
       </c>
       <c r="G33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-400</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
@@ -2764,22 +2837,25 @@
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
       <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,67 +2937,70 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-800</v>
       </c>
       <c r="F35" s="3">
         <v>-800</v>
       </c>
       <c r="G35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-400</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
@@ -2930,110 +3009,116 @@
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
       <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,64 +3180,65 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1800</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -3177,19 +3264,22 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>500</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="F42" s="3">
+        <v>500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -3203,8 +3293,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3260,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,20 +3522,23 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -3447,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3459,11 +3558,11 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -3509,64 +3608,67 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
@@ -3592,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3627,8 +3732,8 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -3636,8 +3741,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3675,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3693,7 +3801,7 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -3702,7 +3810,7 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -3747,7 +3855,7 @@
         <v>400</v>
       </c>
       <c r="Z48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="AA48" s="3">
         <v>1800</v>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4048,8 +4168,8 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -4069,8 +4189,8 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,64 +4296,67 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
       </c>
       <c r="T54" s="3">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3">
         <v>500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>400</v>
       </c>
       <c r="V54" s="3">
         <v>400</v>
@@ -4245,7 +4371,7 @@
         <v>400</v>
       </c>
       <c r="Z54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="AA54" s="3">
         <v>1800</v>
@@ -4256,8 +4382,11 @@
       <c r="AC54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,58 +4448,59 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1400</v>
       </c>
       <c r="T57" s="3">
         <v>1400</v>
@@ -4378,31 +4509,34 @@
         <v>1400</v>
       </c>
       <c r="V57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W57" s="3">
         <v>1200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1100</v>
       </c>
       <c r="X57" s="3">
         <v>1100</v>
       </c>
       <c r="Y57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4440,16 +4574,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
@@ -4484,16 +4618,19 @@
       <c r="AC58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -4511,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
@@ -4520,19 +4657,19 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -4544,7 +4681,7 @@
         <v>400</v>
       </c>
       <c r="V59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>300</v>
@@ -4553,105 +4690,111 @@
         <v>300</v>
       </c>
       <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z59" s="3">
         <v>200</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>100</v>
       </c>
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2100</v>
       </c>
       <c r="T60" s="3">
         <v>2100</v>
       </c>
       <c r="U60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
+        <v>200</v>
+      </c>
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2100</v>
       </c>
       <c r="T66" s="3">
         <v>2100</v>
       </c>
       <c r="U66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-39800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-36800</v>
       </c>
       <c r="J72" s="3">
         <v>-36800</v>
       </c>
       <c r="K72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-39700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-38900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-36000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-35900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-35800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-35400</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-34900</v>
       </c>
       <c r="W72" s="3">
         <v>-34900</v>
       </c>
       <c r="X72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-34700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-34600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-32900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-32800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-32600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2200</v>
       </c>
       <c r="M76" s="3">
         <v>2200</v>
       </c>
       <c r="N76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1600</v>
       </c>
       <c r="U76" s="3">
         <v>-1600</v>
       </c>
       <c r="V76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,155 +6198,161 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-800</v>
       </c>
       <c r="F81" s="3">
         <v>-800</v>
       </c>
       <c r="G81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-400</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
@@ -6166,22 +6361,25 @@
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
       <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6234,8 +6433,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -6252,8 +6451,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,56 +6923,59 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -6766,10 +6983,10 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -6778,10 +6995,10 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
@@ -6790,10 +7007,13 @@
         <v>0</v>
       </c>
       <c r="AC89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,34 +7043,35 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -6867,8 +7088,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,35 +7299,38 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>2800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7113,8 +7343,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,67 +7761,70 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -7587,11 +7833,11 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
@@ -7599,10 +7845,13 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,65 +7933,68 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7765,6 +8017,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TMRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>TMRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,28 +1086,29 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>500</v>
       </c>
       <c r="H12" s="3">
         <v>500</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1109,23 +1123,23 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>-100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
@@ -1133,11 +1147,11 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
@@ -1145,22 +1159,25 @@
         <v>0</v>
       </c>
       <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
         <v>100</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC12" s="3">
         <v>0</v>
       </c>
       <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,28 +1262,31 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1277,38 +1297,38 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>1400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1316,12 +1336,12 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1400</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,70 +1472,71 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
@@ -1518,10 +1545,10 @@
         <v>100</v>
       </c>
       <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1600</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>100</v>
       </c>
       <c r="AB17" s="3">
         <v>100</v>
@@ -1530,10 +1557,13 @@
         <v>100</v>
       </c>
       <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,61 +1571,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-800</v>
       </c>
       <c r="G18" s="3">
         <v>-800</v>
       </c>
       <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
@@ -1604,10 +1634,10 @@
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-100</v>
       </c>
       <c r="AB18" s="3">
         <v>-100</v>
@@ -1616,10 +1646,13 @@
         <v>-100</v>
       </c>
       <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1668,26 +1702,26 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1710,11 +1744,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1722,11 +1756,11 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,26 +1782,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-800</v>
       </c>
       <c r="G21" s="3">
         <v>-800</v>
       </c>
       <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1783,23 +1820,23 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>-400</v>
       </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
@@ -1808,22 +1845,25 @@
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-100</v>
       </c>
       <c r="AC21" s="3">
         <v>-100</v>
       </c>
       <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1887,8 +1927,8 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
@@ -1905,73 +1945,76 @@
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-800</v>
       </c>
       <c r="G23" s="3">
         <v>-800</v>
       </c>
       <c r="H23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-400</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
@@ -1980,22 +2023,25 @@
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-100</v>
       </c>
       <c r="AC23" s="3">
         <v>-100</v>
       </c>
       <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,70 +2215,73 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-800</v>
       </c>
       <c r="G26" s="3">
         <v>-800</v>
       </c>
       <c r="H26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-400</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
@@ -2238,84 +2290,87 @@
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-100</v>
       </c>
       <c r="AC26" s="3">
         <v>-100</v>
       </c>
       <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-800</v>
       </c>
       <c r="G27" s="3">
         <v>-800</v>
       </c>
       <c r="H27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-400</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
@@ -2324,22 +2379,25 @@
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-100</v>
       </c>
       <c r="AC27" s="3">
         <v>-100</v>
       </c>
       <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2700,26 +2770,26 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2742,11 +2812,11 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2754,11 +2824,11 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
@@ -2768,70 +2838,73 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-800</v>
       </c>
       <c r="G33" s="3">
         <v>-800</v>
       </c>
       <c r="H33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-400</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
@@ -2840,22 +2913,25 @@
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-100</v>
       </c>
       <c r="AC33" s="3">
         <v>-100</v>
       </c>
       <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,70 +3016,73 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-800</v>
       </c>
       <c r="G35" s="3">
         <v>-800</v>
       </c>
       <c r="H35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-400</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
@@ -3012,113 +3091,119 @@
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-100</v>
       </c>
       <c r="AC35" s="3">
         <v>-100</v>
       </c>
       <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,67 +3267,68 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1800</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3276,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="G42" s="3">
+        <v>500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -3296,8 +3386,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,23 +3621,26 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -3549,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3561,11 +3660,11 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -3611,67 +3710,70 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3735,8 +3840,8 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -3744,8 +3849,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3804,7 +3912,7 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3813,7 +3921,7 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -3858,7 +3966,7 @@
         <v>400</v>
       </c>
       <c r="AA48" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="AB48" s="3">
         <v>1800</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4171,8 +4291,8 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -4192,8 +4312,8 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,67 +4422,70 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>400</v>
       </c>
       <c r="T54" s="3">
         <v>400</v>
       </c>
       <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
         <v>500</v>
-      </c>
-      <c r="V54" s="3">
-        <v>400</v>
       </c>
       <c r="W54" s="3">
         <v>400</v>
@@ -4374,7 +4500,7 @@
         <v>400</v>
       </c>
       <c r="AA54" s="3">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="AB54" s="3">
         <v>1800</v>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,61 +4579,62 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1400</v>
       </c>
       <c r="U57" s="3">
         <v>1400</v>
@@ -4512,31 +4643,34 @@
         <v>1400</v>
       </c>
       <c r="W57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X57" s="3">
         <v>1200</v>
-      </c>
-      <c r="X57" s="3">
-        <v>1100</v>
       </c>
       <c r="Y57" s="3">
         <v>1100</v>
       </c>
       <c r="Z57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA57" s="3">
         <v>1000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4577,16 +4711,16 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4632,8 +4769,8 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -4651,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
@@ -4660,19 +4797,19 @@
         <v>600</v>
       </c>
       <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
@@ -4684,7 +4821,7 @@
         <v>400</v>
       </c>
       <c r="W59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
@@ -4693,108 +4830,114 @@
         <v>300</v>
       </c>
       <c r="Z59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA59" s="3">
         <v>200</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>100</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD59" s="3">
+      <c r="AC59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2100</v>
       </c>
       <c r="U60" s="3">
         <v>2100</v>
       </c>
       <c r="V60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
       </c>
       <c r="L66" s="3">
+        <v>200</v>
+      </c>
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
-      </c>
-      <c r="T66" s="3">
-        <v>2100</v>
       </c>
       <c r="U66" s="3">
         <v>2100</v>
       </c>
       <c r="V66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W66" s="3">
         <v>2000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-41000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-39800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-37200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-36800</v>
       </c>
       <c r="K72" s="3">
         <v>-36800</v>
       </c>
       <c r="L72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="M72" s="3">
         <v>-39700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-39200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-37800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-36600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-35900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-35800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-35400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-34900</v>
       </c>
       <c r="X72" s="3">
         <v>-34900</v>
       </c>
       <c r="Y72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-34700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-34600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-32900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-32800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-32600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-32500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2200</v>
       </c>
       <c r="N76" s="3">
         <v>2200</v>
       </c>
       <c r="O76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-1600</v>
       </c>
       <c r="V76" s="3">
         <v>-1600</v>
       </c>
       <c r="W76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,161 +6390,167 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-800</v>
       </c>
       <c r="G81" s="3">
         <v>-800</v>
       </c>
       <c r="H81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-400</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
@@ -6364,22 +6559,25 @@
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-100</v>
       </c>
       <c r="AC81" s="3">
         <v>-100</v>
       </c>
       <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6436,8 +6635,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -6454,8 +6653,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,59 +7140,62 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -6986,11 +7203,11 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -6998,11 +7215,11 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
@@ -7010,10 +7227,13 @@
         <v>0</v>
       </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7053,28 +7274,28 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -7091,8 +7312,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,38 +7529,41 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>2800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7346,8 +7576,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,70 +8007,73 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7836,11 +8082,11 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
@@ -7848,10 +8094,13 @@
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,68 +8185,71 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1800</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
